--- a/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
+++ b/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project1\Damle_M-P1\P1_ShoppingCartProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE99BD-2E47-4DF4-8099-B974244B14F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462288AC-E5FB-4BB1-BE39-09ED8CD7B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18450" yWindow="1050" windowWidth="12360" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewClients" sheetId="12" r:id="rId1"/>
-    <sheet name="ShoppingLists" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -37,70 +36,43 @@
     <t>Email</t>
   </si>
   <si>
-    <t>nilesvalentine@email.com</t>
-  </si>
-  <si>
-    <t>mohitdamle@email.com</t>
-  </si>
-  <si>
-    <t>jasminepryor@email.com</t>
-  </si>
-  <si>
-    <t>Marrielle</t>
-  </si>
-  <si>
-    <t>Nolasco</t>
-  </si>
-  <si>
-    <t>marriellenolasco@email.com</t>
-  </si>
-  <si>
-    <t>Elliot</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>elliotmin@email.com</t>
-  </si>
-  <si>
-    <t>Zumaridi</t>
-  </si>
-  <si>
-    <t>Nderu</t>
-  </si>
-  <si>
-    <t>zumethesilentsage@EBI.com</t>
-  </si>
-  <si>
-    <t>Aurelia</t>
-  </si>
-  <si>
-    <t>aurelianderu@EBI.com</t>
-  </si>
-  <si>
     <t>List</t>
   </si>
   <si>
-    <t>tile mate 2, rain jacket 1, salad 10</t>
-  </si>
-  <si>
     <t>eggs 12, fruit loops 4, sliced bacon 10</t>
   </si>
   <si>
-    <t>rose bouquet 1, kicks 2, zelda botw 3</t>
-  </si>
-  <si>
-    <t>milk 2, sliced bacon 5, umbrella 1, orange juice 5</t>
-  </si>
-  <si>
-    <t>milk 1, bread 1, rain jacket 2, eggs 12, sliced bacon 10</t>
-  </si>
-  <si>
-    <t>samsung s9000 1, zelda botw 1</t>
-  </si>
-  <si>
-    <t>coming to america 5, oculus quest 2 2, xbox 720 2</t>
+    <t>Darrielle</t>
+  </si>
+  <si>
+    <t>Dolasco</t>
+  </si>
+  <si>
+    <t>Speckart</t>
+  </si>
+  <si>
+    <t>Tothamax</t>
+  </si>
+  <si>
+    <t>Blahid</t>
+  </si>
+  <si>
+    <t>Safridi</t>
+  </si>
+  <si>
+    <t>ddolasco@email.com</t>
+  </si>
+  <si>
+    <t>stothamax@email.com</t>
+  </si>
+  <si>
+    <t>bsafridi@email.com</t>
+  </si>
+  <si>
+    <t>guarana fantastica 1, rain jacket 1, salad 10</t>
+  </si>
+  <si>
+    <t>guarana fantastica 3, rain jacket 1, laughing lumberjack lager 12</t>
   </si>
 </sst>
 </file>
@@ -141,15 +113,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +405,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12 D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -447,122 +427,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4ED5CA6A-39C7-4993-9A3E-3404FA46A167}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B9A885E0-542D-4E83-8F0D-99D6FAA4CEFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
+++ b/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project1\Damle_M-P1\P1_ShoppingCartProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462288AC-E5FB-4BB1-BE39-09ED8CD7B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF306E-DF5B-428C-995A-0C621FAF6EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
     <t>eggs 12, fruit loops 4, sliced bacon 10</t>
   </si>
   <si>
@@ -73,6 +61,18 @@
   </si>
   <si>
     <t>guarana fantastica 3, rain jacket 1, laughing lumberjack lager 12</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,58 +418,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
+++ b/P1_ShoppingCartProcess/Data/RoSADatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project1\Damle_M-P1\P1_ShoppingCartProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF306E-DF5B-428C-995A-0C621FAF6EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA8682-CDE1-46EB-8A24-57E4EA3287C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>eggs 12, fruit loops 4, sliced bacon 10</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Safridi</t>
   </si>
   <si>
-    <t>ddolasco@email.com</t>
-  </si>
-  <si>
-    <t>stothamax@email.com</t>
-  </si>
-  <si>
-    <t>bsafridi@email.com</t>
-  </si>
-  <si>
     <t>guarana fantastica 1, rain jacket 1, salad 10</t>
   </si>
   <si>
@@ -73,6 +64,9 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>dumblaymyhit@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +399,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,16 +412,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,10 +432,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -466,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,11 +473,6 @@
       <c r="D5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4ED5CA6A-39C7-4993-9A3E-3404FA46A167}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B9A885E0-542D-4E83-8F0D-99D6FAA4CEFF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>